--- a/Gold_Fly/src/test/resources/TestData/FlyPegion/FlyPegionTestData.xlsx
+++ b/Gold_Fly/src/test/resources/TestData/FlyPegion/FlyPegionTestData.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE03875-57D1-48DD-B55F-51D9AA2CE7FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB8C096-148B-43B5-B766-020057F8E0EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20391" windowHeight="10837" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="DataSet" sheetId="1" r:id="rId1"/>
+    <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
-  <si>
-    <t>UserName</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>Password</t>
   </si>
@@ -31,9 +28,6 @@
     <t>DataSet</t>
   </si>
   <si>
-    <t>AccountDetails</t>
-  </si>
-  <si>
     <t>FirstName</t>
   </si>
   <si>
@@ -115,7 +109,16 @@
     <t>Prod Email</t>
   </si>
   <si>
-    <t>Prod UserName</t>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>Account Links</t>
+  </si>
+  <si>
+    <t>Bus Booking List,Air Booking List,Set Markups,Commission Details,Transactions,Profile,Change Password,Support</t>
+  </si>
+  <si>
+    <t>Add Balance,Buses</t>
   </si>
 </sst>
 </file>
@@ -486,136 +489,140 @@
   <dimension ref="A1:AF27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="56.81640625" defaultRowHeight="14.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="56.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.7265625" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="30.7265625" customWidth="1"/>
-    <col min="10" max="10" width="30.54296875" customWidth="1"/>
-    <col min="11" max="11" width="19.7265625" customWidth="1"/>
-    <col min="12" max="13" width="22.26953125" customWidth="1"/>
-    <col min="14" max="14" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="100.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.77734375" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="30.77734375" customWidth="1"/>
+    <col min="10" max="10" width="30.5546875" customWidth="1"/>
+    <col min="11" max="11" width="19.77734375" customWidth="1"/>
+    <col min="12" max="13" width="22.21875" customWidth="1"/>
+    <col min="14" max="14" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.21875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="14" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.26953125" customWidth="1"/>
+    <col min="20" max="20" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="C2" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="H2" s="2"/>
@@ -626,86 +633,86 @@
       <c r="R2" s="5"/>
       <c r="S2" s="7"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="R3" s="5"/>
       <c r="S3" s="7"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="R4" s="5"/>
       <c r="S4" s="7"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="O5" s="3"/>
       <c r="P5" s="4"/>
       <c r="V5" s="5"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="O6" s="3"/>
       <c r="P6" s="4"/>
       <c r="V6" s="5"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
       <c r="O7" s="3"/>
       <c r="P7" s="4"/>
       <c r="V7" s="5"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="V8" s="5"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="V9" s="5"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="V10" s="5"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="V11" s="5"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
       <c r="D12" s="8"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="AD12" s="10"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="V13" s="5"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="G14" s="6"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
       <c r="R15" s="5"/>
       <c r="S15" s="7"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="R16" s="5"/>
       <c r="S16" s="7"/>
     </row>
-    <row r="17" spans="4:29" x14ac:dyDescent="0.35">
+    <row r="17" spans="4:29" x14ac:dyDescent="0.3">
       <c r="R17" s="5"/>
       <c r="S17" s="7"/>
     </row>
-    <row r="18" spans="4:29" x14ac:dyDescent="0.35">
+    <row r="18" spans="4:29" x14ac:dyDescent="0.3">
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="O18" s="5"/>
@@ -715,21 +722,21 @@
       <c r="S18" s="7"/>
       <c r="AC18" s="5"/>
     </row>
-    <row r="19" spans="4:29" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:29" x14ac:dyDescent="0.3">
       <c r="R19" s="5"/>
       <c r="S19" s="7"/>
       <c r="T19" s="5"/>
     </row>
-    <row r="20" spans="4:29" x14ac:dyDescent="0.35">
+    <row r="20" spans="4:29" x14ac:dyDescent="0.3">
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
     </row>
-    <row r="21" spans="4:29" x14ac:dyDescent="0.35">
+    <row r="21" spans="4:29" x14ac:dyDescent="0.3">
       <c r="E21" s="2"/>
       <c r="H21" s="10"/>
       <c r="I21" s="10"/>
     </row>
-    <row r="22" spans="4:29" x14ac:dyDescent="0.35">
+    <row r="22" spans="4:29" x14ac:dyDescent="0.3">
       <c r="D22" s="9"/>
       <c r="E22" s="2"/>
       <c r="H22" s="2"/>
@@ -737,17 +744,17 @@
       <c r="O22" s="5"/>
       <c r="P22" s="5"/>
     </row>
-    <row r="23" spans="4:29" x14ac:dyDescent="0.35">
+    <row r="23" spans="4:29" x14ac:dyDescent="0.3">
       <c r="O23" s="5"/>
       <c r="P23" s="5"/>
     </row>
-    <row r="26" spans="4:29" x14ac:dyDescent="0.35">
+    <row r="26" spans="4:29" x14ac:dyDescent="0.3">
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
       <c r="J26" s="10"/>
       <c r="M26" s="5"/>
     </row>
-    <row r="27" spans="4:29" x14ac:dyDescent="0.35">
+    <row r="27" spans="4:29" x14ac:dyDescent="0.3">
       <c r="H27" s="10"/>
       <c r="I27" s="10"/>
     </row>

--- a/Gold_Fly/src/test/resources/TestData/FlyPegion/FlyPegionTestData.xlsx
+++ b/Gold_Fly/src/test/resources/TestData/FlyPegion/FlyPegionTestData.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB8C096-148B-43B5-B766-020057F8E0EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{992A2706-7CC9-4311-AF8E-E64DC79520E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20391" windowHeight="10837" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
+    <sheet name="FooterLinks" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>Password</t>
   </si>
@@ -119,6 +120,15 @@
   </si>
   <si>
     <t>Add Balance,Buses</t>
+  </si>
+  <si>
+    <t>Footer</t>
+  </si>
+  <si>
+    <t>Footer Links</t>
+  </si>
+  <si>
+    <t>About,Contact Us,Privacy Policy,Terms of Use,Terms of Service,Terms of Shipping/Refund,Home</t>
   </si>
 </sst>
 </file>
@@ -488,34 +498,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="56.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="56.81640625" defaultRowHeight="14.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="100.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="30.77734375" customWidth="1"/>
-    <col min="10" max="10" width="30.5546875" customWidth="1"/>
-    <col min="11" max="11" width="19.77734375" customWidth="1"/>
-    <col min="12" max="13" width="22.21875" customWidth="1"/>
-    <col min="14" max="14" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="100.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.81640625" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="30.81640625" customWidth="1"/>
+    <col min="10" max="10" width="30.54296875" customWidth="1"/>
+    <col min="11" max="11" width="19.81640625" customWidth="1"/>
+    <col min="12" max="13" width="22.1796875" customWidth="1"/>
+    <col min="14" max="14" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.54296875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.1796875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="14" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.21875" customWidth="1"/>
+    <col min="20" max="20" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -613,7 +623,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -633,86 +643,86 @@
       <c r="R2" s="5"/>
       <c r="S2" s="7"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="R3" s="5"/>
       <c r="S3" s="7"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="R4" s="5"/>
       <c r="S4" s="7"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="O5" s="3"/>
       <c r="P5" s="4"/>
       <c r="V5" s="5"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="O6" s="3"/>
       <c r="P6" s="4"/>
       <c r="V6" s="5"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="O7" s="3"/>
       <c r="P7" s="4"/>
       <c r="V7" s="5"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="V8" s="5"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="V9" s="5"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="V10" s="5"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="V11" s="5"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
       <c r="D12" s="8"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="AD12" s="10"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="V13" s="5"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="G14" s="6"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
       <c r="R15" s="5"/>
       <c r="S15" s="7"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="R16" s="5"/>
       <c r="S16" s="7"/>
     </row>
-    <row r="17" spans="4:29" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:29" x14ac:dyDescent="0.35">
       <c r="R17" s="5"/>
       <c r="S17" s="7"/>
     </row>
-    <row r="18" spans="4:29" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:29" x14ac:dyDescent="0.35">
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="O18" s="5"/>
@@ -722,21 +732,21 @@
       <c r="S18" s="7"/>
       <c r="AC18" s="5"/>
     </row>
-    <row r="19" spans="4:29" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:29" x14ac:dyDescent="0.35">
       <c r="R19" s="5"/>
       <c r="S19" s="7"/>
       <c r="T19" s="5"/>
     </row>
-    <row r="20" spans="4:29" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:29" x14ac:dyDescent="0.35">
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
     </row>
-    <row r="21" spans="4:29" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:29" x14ac:dyDescent="0.35">
       <c r="E21" s="2"/>
       <c r="H21" s="10"/>
       <c r="I21" s="10"/>
     </row>
-    <row r="22" spans="4:29" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:29" x14ac:dyDescent="0.35">
       <c r="D22" s="9"/>
       <c r="E22" s="2"/>
       <c r="H22" s="2"/>
@@ -744,17 +754,17 @@
       <c r="O22" s="5"/>
       <c r="P22" s="5"/>
     </row>
-    <row r="23" spans="4:29" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:29" x14ac:dyDescent="0.35">
       <c r="O23" s="5"/>
       <c r="P23" s="5"/>
     </row>
-    <row r="26" spans="4:29" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:29" x14ac:dyDescent="0.35">
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
       <c r="J26" s="10"/>
       <c r="M26" s="5"/>
     </row>
-    <row r="27" spans="4:29" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:29" x14ac:dyDescent="0.35">
       <c r="H27" s="10"/>
       <c r="I27" s="10"/>
     </row>
@@ -762,4 +772,35 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{709CE98B-E627-491B-8C47-135D5895C63F}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Gold_Fly/src/test/resources/TestData/FlyPegion/FlyPegionTestData.xlsx
+++ b/Gold_Fly/src/test/resources/TestData/FlyPegion/FlyPegionTestData.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{992A2706-7CC9-4311-AF8E-E64DC79520E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DEC791A-B5A9-45CF-BB37-FDEE84C824D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20391" windowHeight="10837" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20391" windowHeight="10837" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
+    <sheet name="DataSet" sheetId="1" r:id="rId1"/>
     <sheet name="FooterLinks" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
@@ -498,8 +498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF27"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="56.81640625" defaultRowHeight="14.75" x14ac:dyDescent="0.35"/>
@@ -778,7 +778,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{709CE98B-E627-491B-8C47-135D5895C63F}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>

--- a/Gold_Fly/src/test/resources/TestData/FlyPegion/FlyPegionTestData.xlsx
+++ b/Gold_Fly/src/test/resources/TestData/FlyPegion/FlyPegionTestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DEC791A-B5A9-45CF-BB37-FDEE84C824D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2634236-0AB8-42AE-8F55-A952D6A450DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20391" windowHeight="10837" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="1" r:id="rId1"/>
@@ -21,95 +21,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
-  <si>
-    <t>Password</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>DataSet</t>
   </si>
   <si>
-    <t>FirstName</t>
-  </si>
-  <si>
-    <t>LastName</t>
-  </si>
-  <si>
-    <t>Street</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>postcode</t>
-  </si>
-  <si>
     <t>phone</t>
   </si>
   <si>
-    <t>cardNumber</t>
-  </si>
-  <si>
-    <t>cvv</t>
-  </si>
-  <si>
-    <t>Region</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>ExpMonthYear</t>
-  </si>
-  <si>
-    <t>methods</t>
-  </si>
-  <si>
-    <t>Products</t>
-  </si>
-  <si>
-    <t>Confirm Password</t>
-  </si>
-  <si>
-    <t>Colorproduct</t>
-  </si>
-  <si>
-    <t>Color</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>Discountcode</t>
-  </si>
-  <si>
-    <t>OTP Number</t>
-  </si>
-  <si>
-    <t>DOB</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
     <t>Links</t>
   </si>
   <si>
-    <t>Sort</t>
-  </si>
-  <si>
-    <t>message</t>
-  </si>
-  <si>
-    <t>PLP Color</t>
-  </si>
-  <si>
-    <t>prodDiscountcode</t>
-  </si>
-  <si>
-    <t>Prod Email</t>
-  </si>
-  <si>
     <t>Account</t>
   </si>
   <si>
@@ -129,6 +51,18 @@
   </si>
   <si>
     <t>About,Contact Us,Privacy Policy,Terms of Use,Terms of Service,Terms of Shipping/Refund,Home</t>
+  </si>
+  <si>
+    <t>Balance</t>
+  </si>
+  <si>
+    <t>Update Balance</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>8186886443</t>
   </si>
 </sst>
 </file>
@@ -138,7 +72,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,13 +84,6 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF1F497D"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -203,18 +130,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -496,277 +420,92 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF27"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="56.81640625" defaultRowHeight="14.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="56.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="100.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.81640625" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="30.81640625" customWidth="1"/>
-    <col min="10" max="10" width="30.54296875" customWidth="1"/>
-    <col min="11" max="11" width="19.81640625" customWidth="1"/>
-    <col min="12" max="13" width="22.1796875" customWidth="1"/>
-    <col min="14" max="14" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.1796875" customWidth="1"/>
+    <col min="1" max="1" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="100.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.77734375" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="B2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="7"/>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="7"/>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="7"/>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="O5" s="3"/>
-      <c r="P5" s="4"/>
-      <c r="V5" s="5"/>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="O6" s="3"/>
-      <c r="P6" s="4"/>
-      <c r="V6" s="5"/>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="O7" s="3"/>
-      <c r="P7" s="4"/>
-      <c r="V7" s="5"/>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="V8" s="5"/>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="V9" s="5"/>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="V10" s="5"/>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="V11" s="5"/>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="D12" s="8"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="AD12" s="10"/>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="V13" s="5"/>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E7" s="3"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D12" s="5"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="R15" s="5"/>
-      <c r="S15" s="7"/>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="7"/>
-    </row>
-    <row r="17" spans="4:29" x14ac:dyDescent="0.35">
-      <c r="R17" s="5"/>
-      <c r="S17" s="7"/>
-    </row>
-    <row r="18" spans="4:29" x14ac:dyDescent="0.35">
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="7"/>
-      <c r="AC18" s="5"/>
-    </row>
-    <row r="19" spans="4:29" x14ac:dyDescent="0.35">
-      <c r="R19" s="5"/>
-      <c r="S19" s="7"/>
-      <c r="T19" s="5"/>
-    </row>
-    <row r="20" spans="4:29" x14ac:dyDescent="0.35">
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-    </row>
-    <row r="21" spans="4:29" x14ac:dyDescent="0.35">
-      <c r="E21" s="2"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-    </row>
-    <row r="22" spans="4:29" x14ac:dyDescent="0.35">
-      <c r="D22" s="9"/>
-      <c r="E22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-    </row>
-    <row r="23" spans="4:29" x14ac:dyDescent="0.35">
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-    </row>
-    <row r="26" spans="4:29" x14ac:dyDescent="0.35">
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="M26" s="5"/>
-    </row>
-    <row r="27" spans="4:29" x14ac:dyDescent="0.35">
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E18" s="4"/>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E20" s="4"/>
+    </row>
+    <row r="22" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D22" s="6"/>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E23" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -782,22 +521,22 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Gold_Fly/src/test/resources/TestData/FlyPegion/FlyPegionTestData.xlsx
+++ b/Gold_Fly/src/test/resources/TestData/FlyPegion/FlyPegionTestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2634236-0AB8-42AE-8F55-A952D6A450DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC6ACECC-C19B-44F0-97CC-A97A23BC3DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20391" windowHeight="10837" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>DataSet</t>
   </si>
@@ -63,6 +63,57 @@
   </si>
   <si>
     <t>8186886443</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>FPGNCW000005A</t>
+  </si>
+  <si>
+    <t>bJfH83IKu8</t>
+  </si>
+  <si>
+    <t>Support</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>vinjamuriajay@flypigeon.com</t>
+  </si>
+  <si>
+    <t>QueryID</t>
+  </si>
+  <si>
+    <t>FPGNCALL000001</t>
+  </si>
+  <si>
+    <t>FromDate</t>
+  </si>
+  <si>
+    <t>ToDate</t>
+  </si>
+  <si>
+    <t>07/03/2023</t>
+  </si>
+  <si>
+    <t>26/03/2023</t>
+  </si>
+  <si>
+    <t>8008554070</t>
+  </si>
+  <si>
+    <t>Inactive details</t>
+  </si>
+  <si>
+    <t>FPGNR8000007A</t>
   </si>
 </sst>
 </file>
@@ -130,7 +181,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
@@ -139,6 +190,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -420,96 +473,160 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="56.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="56.81640625" defaultRowHeight="14.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="100.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6328125" customWidth="1"/>
+    <col min="2" max="5" width="23.1796875" customWidth="1"/>
+    <col min="6" max="6" width="100.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.7265625" customWidth="1"/>
+    <col min="8" max="8" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.26953125" customWidth="1"/>
+    <col min="11" max="11" width="10.6328125" customWidth="1"/>
+    <col min="12" max="12" width="10.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="J1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H2" s="2"/>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E7" s="3"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D12" s="5"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D14" s="2"/>
-    </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="E18" s="4"/>
-    </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="E20" s="4"/>
-    </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D22" s="6"/>
-      <c r="E22" s="4"/>
-    </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="E23" s="4"/>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I7" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="H12" s="5"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="H14" s="2"/>
+    </row>
+    <row r="18" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="I18" s="4"/>
+    </row>
+    <row r="20" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="I20" s="4"/>
+    </row>
+    <row r="22" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="H22" s="6"/>
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="I23" s="4"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F4" r:id="rId1" xr:uid="{3A24BFA4-45E0-4C02-9649-896BEBF2B70E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -518,12 +635,12 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -531,7 +648,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>

--- a/Gold_Fly/src/test/resources/TestData/FlyPegion/FlyPegionTestData.xlsx
+++ b/Gold_Fly/src/test/resources/TestData/FlyPegion/FlyPegionTestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC6ACECC-C19B-44F0-97CC-A97A23BC3DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{740784C9-F37D-4864-9124-EBFFD1B16C4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="20391" windowHeight="10837" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>DataSet</t>
   </si>
@@ -77,9 +77,6 @@
     <t>FPGNCW000005A</t>
   </si>
   <si>
-    <t>bJfH83IKu8</t>
-  </si>
-  <si>
     <t>Support</t>
   </si>
   <si>
@@ -114,6 +111,27 @@
   </si>
   <si>
     <t>FPGNR8000007A</t>
+  </si>
+  <si>
+    <t>Buses</t>
+  </si>
+  <si>
+    <t>LeavingFrom</t>
+  </si>
+  <si>
+    <t>GoingTo</t>
+  </si>
+  <si>
+    <t>Hyderabad, Telangana</t>
+  </si>
+  <si>
+    <t>2023/03/30</t>
+  </si>
+  <si>
+    <t>Aa@12345</t>
+  </si>
+  <si>
+    <t>Vijayawada, Andhra Pradesh</t>
   </si>
 </sst>
 </file>
@@ -473,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="56.81640625" defaultRowHeight="14.75" x14ac:dyDescent="0.35"/>
@@ -490,9 +508,11 @@
     <col min="10" max="10" width="19.26953125" customWidth="1"/>
     <col min="11" max="11" width="10.6328125" customWidth="1"/>
     <col min="12" max="12" width="10.453125" customWidth="1"/>
+    <col min="13" max="13" width="20.7265625" customWidth="1"/>
+    <col min="14" max="14" width="23.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -506,7 +526,7 @@
         <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -521,24 +541,30 @@
         <v>1</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
-        <v>18</v>
+      <c r="D2" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>5</v>
@@ -549,12 +575,12 @@
       <c r="H2" s="2"/>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>12</v>
@@ -563,49 +589,61 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H4" s="2"/>
       <c r="J4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
         <v>29</v>
       </c>
-      <c r="C5" t="s">
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" t="s">
+        <v>33</v>
+      </c>
+      <c r="N6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="I7" s="3"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="H12" s="5"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="H14" s="2"/>
     </row>
     <row r="18" spans="8:9" x14ac:dyDescent="0.35">
@@ -624,9 +662,10 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F4" r:id="rId1" xr:uid="{3A24BFA4-45E0-4C02-9649-896BEBF2B70E}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{C640E189-E9B8-4809-8EA0-43B51C357D06}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/Gold_Fly/src/test/resources/TestData/FlyPegion/FlyPegionTestData.xlsx
+++ b/Gold_Fly/src/test/resources/TestData/FlyPegion/FlyPegionTestData.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{740784C9-F37D-4864-9124-EBFFD1B16C4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{376CC6D7-F4DC-45D2-980B-3F2723CF44A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20391" windowHeight="10837" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="1" r:id="rId1"/>
     <sheet name="FooterLinks" sheetId="2" r:id="rId2"/>
+    <sheet name="Airlines" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="42">
   <si>
     <t>DataSet</t>
   </si>
@@ -132,6 +133,21 @@
   </si>
   <si>
     <t>Vijayawada, Andhra Pradesh</t>
+  </si>
+  <si>
+    <t>From</t>
+  </si>
+  <si>
+    <t>To</t>
+  </si>
+  <si>
+    <t>one way</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>Hyderabad</t>
   </si>
 </sst>
 </file>
@@ -493,26 +509,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="56.81640625" defaultRowHeight="14.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="56.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.6328125" customWidth="1"/>
-    <col min="2" max="5" width="23.1796875" customWidth="1"/>
-    <col min="6" max="6" width="100.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.7265625" customWidth="1"/>
-    <col min="8" max="8" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.26953125" customWidth="1"/>
-    <col min="11" max="11" width="10.6328125" customWidth="1"/>
-    <col min="12" max="12" width="10.453125" customWidth="1"/>
-    <col min="13" max="13" width="20.7265625" customWidth="1"/>
-    <col min="14" max="14" width="23.54296875" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="5" width="23.21875" customWidth="1"/>
+    <col min="6" max="6" width="100.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.77734375" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.21875" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" customWidth="1"/>
+    <col min="12" max="12" width="10.44140625" customWidth="1"/>
+    <col min="13" max="13" width="20.77734375" customWidth="1"/>
+    <col min="14" max="14" width="23.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -556,7 +572,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -575,7 +591,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -589,7 +605,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -613,7 +629,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -622,7 +638,7 @@
       </c>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -637,26 +653,26 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="I7" s="3"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="H12" s="5"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="H14" s="2"/>
     </row>
-    <row r="18" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="8:9" x14ac:dyDescent="0.3">
       <c r="I18" s="4"/>
     </row>
-    <row r="20" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="8:9" x14ac:dyDescent="0.3">
       <c r="I20" s="4"/>
     </row>
-    <row r="22" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H22" s="6"/>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="8:9" x14ac:dyDescent="0.3">
       <c r="I23" s="4"/>
     </row>
   </sheetData>
@@ -677,9 +693,9 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -687,7 +703,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -698,4 +714,86 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B74D610A-0754-471F-9B9F-9DF81FB0FED4}">
+  <dimension ref="A1:L3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="I3" s="9"/>
+      <c r="K3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{4C74CBF8-85D8-4160-8560-682A35AEC5FB}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Gold_Fly/src/test/resources/TestData/FlyPegion/FlyPegionTestData.xlsx
+++ b/Gold_Fly/src/test/resources/TestData/FlyPegion/FlyPegionTestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{376CC6D7-F4DC-45D2-980B-3F2723CF44A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4417FCA9-77CE-4EEA-A43B-1AF0B72D4A29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20391" windowHeight="10837" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="49">
   <si>
     <t>DataSet</t>
   </si>
@@ -148,6 +148,27 @@
   </si>
   <si>
     <t>Hyderabad</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Ajay</t>
+  </si>
+  <si>
+    <t>vinjumuri</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Male</t>
   </si>
 </sst>
 </file>
@@ -507,28 +528,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:R23"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="56.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="56.81640625" defaultRowHeight="14.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
-    <col min="2" max="5" width="23.21875" customWidth="1"/>
-    <col min="6" max="6" width="100.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.77734375" customWidth="1"/>
-    <col min="8" max="8" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.21875" customWidth="1"/>
-    <col min="11" max="11" width="10.6640625" customWidth="1"/>
-    <col min="12" max="12" width="10.44140625" customWidth="1"/>
-    <col min="13" max="13" width="20.77734375" customWidth="1"/>
-    <col min="14" max="14" width="23.5546875" customWidth="1"/>
+    <col min="1" max="1" width="12.6328125" customWidth="1"/>
+    <col min="2" max="3" width="23.1796875" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" customWidth="1"/>
+    <col min="5" max="5" width="15.36328125" customWidth="1"/>
+    <col min="6" max="6" width="9.36328125" customWidth="1"/>
+    <col min="7" max="9" width="9.6328125" customWidth="1"/>
+    <col min="10" max="10" width="100.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.81640625" customWidth="1"/>
+    <col min="12" max="12" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.1796875" customWidth="1"/>
+    <col min="15" max="15" width="10.6328125" customWidth="1"/>
+    <col min="16" max="16" width="10.453125" customWidth="1"/>
+    <col min="17" max="17" width="20.81640625" customWidth="1"/>
+    <col min="18" max="18" width="23.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -545,34 +570,46 @@
         <v>19</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -582,30 +619,34 @@
       <c r="D2" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="4"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L2" s="2"/>
+      <c r="M2" s="4"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="L3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -615,73 +656,96 @@
       <c r="E4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="J4" t="s">
+      <c r="L4" s="2"/>
+      <c r="N4" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="O4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="P4" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>28</v>
       </c>
       <c r="C5" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="3"/>
-      <c r="L6" s="4" t="s">
+      <c r="B6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6">
+        <v>27</v>
+      </c>
+      <c r="I6" t="s">
+        <v>48</v>
+      </c>
+      <c r="M6" s="3"/>
+      <c r="P6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="M6" t="s">
+      <c r="Q6" t="s">
         <v>33</v>
       </c>
-      <c r="N6" t="s">
+      <c r="R6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="I7" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="H12" s="5"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="H14" s="2"/>
-    </row>
-    <row r="18" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="I18" s="4"/>
-    </row>
-    <row r="20" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="I20" s="4"/>
-    </row>
-    <row r="22" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H22" s="6"/>
-      <c r="I22" s="4"/>
-    </row>
-    <row r="23" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="I23" s="4"/>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="M7" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="L12" s="5"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="L14" s="2"/>
+    </row>
+    <row r="18" spans="12:13" x14ac:dyDescent="0.35">
+      <c r="M18" s="4"/>
+    </row>
+    <row r="20" spans="12:13" x14ac:dyDescent="0.35">
+      <c r="M20" s="4"/>
+    </row>
+    <row r="22" spans="12:13" x14ac:dyDescent="0.35">
+      <c r="L22" s="6"/>
+      <c r="M22" s="4"/>
+    </row>
+    <row r="23" spans="12:13" x14ac:dyDescent="0.35">
+      <c r="M23" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F4" r:id="rId1" xr:uid="{3A24BFA4-45E0-4C02-9649-896BEBF2B70E}"/>
+    <hyperlink ref="J4" r:id="rId1" xr:uid="{3A24BFA4-45E0-4C02-9649-896BEBF2B70E}"/>
     <hyperlink ref="D2" r:id="rId2" xr:uid="{C640E189-E9B8-4809-8EA0-43B51C357D06}"/>
+    <hyperlink ref="B6" r:id="rId3" xr:uid="{35DEAA59-7287-4985-8FB7-1145006807D1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -693,9 +757,9 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -703,7 +767,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -720,13 +784,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B74D610A-0754-471F-9B9F-9DF81FB0FED4}">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -764,7 +828,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -777,7 +841,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>39</v>
       </c>

--- a/Gold_Fly/src/test/resources/TestData/FlyPegion/FlyPegionTestData.xlsx
+++ b/Gold_Fly/src/test/resources/TestData/FlyPegion/FlyPegionTestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4417FCA9-77CE-4EEA-A43B-1AF0B72D4A29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9CDEB3A-57C0-4DA6-9390-F0F71FC1CB97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="20391" windowHeight="10837" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="60">
   <si>
     <t>DataSet</t>
   </si>
@@ -169,6 +169,39 @@
   </si>
   <si>
     <t>Male</t>
+  </si>
+  <si>
+    <t>Profile</t>
+  </si>
+  <si>
+    <t>Vinjamuri</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>8-2-321/b/32</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Telangana</t>
+  </si>
+  <si>
+    <t>Pincode</t>
+  </si>
+  <si>
+    <t>500001</t>
+  </si>
+  <si>
+    <t>Designation</t>
+  </si>
+  <si>
+    <t>Agent</t>
   </si>
 </sst>
 </file>
@@ -528,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R23"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="56.81640625" defaultRowHeight="14.75" x14ac:dyDescent="0.35"/>
@@ -541,19 +574,21 @@
     <col min="4" max="4" width="14.453125" customWidth="1"/>
     <col min="5" max="5" width="15.36328125" customWidth="1"/>
     <col min="6" max="6" width="9.36328125" customWidth="1"/>
-    <col min="7" max="9" width="9.6328125" customWidth="1"/>
-    <col min="10" max="10" width="100.36328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.81640625" customWidth="1"/>
-    <col min="12" max="12" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.1796875" customWidth="1"/>
-    <col min="15" max="15" width="10.6328125" customWidth="1"/>
-    <col min="16" max="16" width="10.453125" customWidth="1"/>
-    <col min="17" max="17" width="20.81640625" customWidth="1"/>
-    <col min="18" max="18" width="23.54296875" customWidth="1"/>
+    <col min="7" max="10" width="9.6328125" customWidth="1"/>
+    <col min="11" max="11" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="9.6328125" customWidth="1"/>
+    <col min="15" max="15" width="100.36328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.81640625" customWidth="1"/>
+    <col min="17" max="17" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.1796875" customWidth="1"/>
+    <col min="20" max="20" width="10.6328125" customWidth="1"/>
+    <col min="21" max="21" width="10.453125" customWidth="1"/>
+    <col min="22" max="22" width="20.81640625" customWidth="1"/>
+    <col min="23" max="23" width="23.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -576,40 +611,55 @@
         <v>43</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -619,16 +669,16 @@
       <c r="D2" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="O2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="P2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="4"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="Q2" s="2"/>
+      <c r="R2" s="4"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -639,14 +689,19 @@
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
-      <c r="L3" s="7" t="s">
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="Q3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="R3" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -660,30 +715,35 @@
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="2"/>
-      <c r="N4" t="s">
+      <c r="Q4" s="2"/>
+      <c r="S4" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="T4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="P4" s="9" t="s">
+      <c r="U4" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>28</v>
       </c>
       <c r="C5" t="s">
         <v>29</v>
       </c>
-      <c r="M5" s="3"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="R5" s="3"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -699,48 +759,72 @@
       <c r="G6" t="s">
         <v>45</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>27</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>48</v>
       </c>
-      <c r="M6" s="3"/>
-      <c r="P6" s="4" t="s">
+      <c r="R6" s="3"/>
+      <c r="U6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="V6" t="s">
         <v>33</v>
       </c>
-      <c r="R6" t="s">
+      <c r="W6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="M7" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="L12" s="5"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="L14" s="2"/>
-    </row>
-    <row r="18" spans="12:13" x14ac:dyDescent="0.35">
-      <c r="M18" s="4"/>
-    </row>
-    <row r="20" spans="12:13" x14ac:dyDescent="0.35">
-      <c r="M20" s="4"/>
-    </row>
-    <row r="22" spans="12:13" x14ac:dyDescent="0.35">
-      <c r="L22" s="6"/>
-      <c r="M22" s="4"/>
-    </row>
-    <row r="23" spans="12:13" x14ac:dyDescent="0.35">
-      <c r="M23" s="4"/>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L7" t="s">
+        <v>41</v>
+      </c>
+      <c r="M7" t="s">
+        <v>55</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="R7" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="Q12" s="5"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="Q14" s="2"/>
+    </row>
+    <row r="18" spans="17:18" x14ac:dyDescent="0.35">
+      <c r="R18" s="4"/>
+    </row>
+    <row r="20" spans="17:18" x14ac:dyDescent="0.35">
+      <c r="R20" s="4"/>
+    </row>
+    <row r="22" spans="17:18" x14ac:dyDescent="0.35">
+      <c r="Q22" s="6"/>
+      <c r="R22" s="4"/>
+    </row>
+    <row r="23" spans="17:18" x14ac:dyDescent="0.35">
+      <c r="R23" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J4" r:id="rId1" xr:uid="{3A24BFA4-45E0-4C02-9649-896BEBF2B70E}"/>
+    <hyperlink ref="O4" r:id="rId1" xr:uid="{3A24BFA4-45E0-4C02-9649-896BEBF2B70E}"/>
     <hyperlink ref="D2" r:id="rId2" xr:uid="{C640E189-E9B8-4809-8EA0-43B51C357D06}"/>
     <hyperlink ref="B6" r:id="rId3" xr:uid="{35DEAA59-7287-4985-8FB7-1145006807D1}"/>
   </hyperlinks>

--- a/Gold_Fly/src/test/resources/TestData/FlyPegion/FlyPegionTestData.xlsx
+++ b/Gold_Fly/src/test/resources/TestData/FlyPegion/FlyPegionTestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9CDEB3A-57C0-4DA6-9390-F0F71FC1CB97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6834FD82-4968-4CF3-9307-41D14644B5A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20391" windowHeight="10837" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="65">
   <si>
     <t>DataSet</t>
   </si>
@@ -202,6 +202,21 @@
   </si>
   <si>
     <t>Agent</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>Firstname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fly </t>
+  </si>
+  <si>
+    <t>Pegion</t>
   </si>
 </sst>
 </file>
@@ -563,32 +578,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="56.81640625" defaultRowHeight="14.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="56.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.6328125" customWidth="1"/>
-    <col min="2" max="3" width="23.1796875" customWidth="1"/>
-    <col min="4" max="4" width="14.453125" customWidth="1"/>
-    <col min="5" max="5" width="15.36328125" customWidth="1"/>
-    <col min="6" max="6" width="9.36328125" customWidth="1"/>
-    <col min="7" max="10" width="9.6328125" customWidth="1"/>
-    <col min="11" max="11" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="9.6328125" customWidth="1"/>
-    <col min="15" max="15" width="100.36328125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.81640625" customWidth="1"/>
-    <col min="17" max="17" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.1796875" customWidth="1"/>
-    <col min="20" max="20" width="10.6328125" customWidth="1"/>
-    <col min="21" max="21" width="10.453125" customWidth="1"/>
-    <col min="22" max="22" width="20.81640625" customWidth="1"/>
-    <col min="23" max="23" width="23.54296875" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="3" width="23.21875" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" customWidth="1"/>
+    <col min="7" max="10" width="9.6640625" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="9.6640625" customWidth="1"/>
+    <col min="15" max="15" width="100.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.77734375" customWidth="1"/>
+    <col min="17" max="17" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.21875" customWidth="1"/>
+    <col min="20" max="20" width="10.6640625" customWidth="1"/>
+    <col min="21" max="21" width="10.44140625" customWidth="1"/>
+    <col min="22" max="22" width="20.77734375" customWidth="1"/>
+    <col min="23" max="23" width="23.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -659,7 +674,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -678,7 +693,7 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="4"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -701,7 +716,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -734,7 +749,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -743,7 +758,7 @@
       </c>
       <c r="R5" s="3"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -776,7 +791,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>49</v>
       </c>
@@ -803,23 +818,23 @@
       </c>
       <c r="R7" s="3"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="Q12" s="5"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="Q14" s="2"/>
     </row>
-    <row r="18" spans="17:18" x14ac:dyDescent="0.35">
+    <row r="18" spans="17:18" x14ac:dyDescent="0.3">
       <c r="R18" s="4"/>
     </row>
-    <row r="20" spans="17:18" x14ac:dyDescent="0.35">
+    <row r="20" spans="17:18" x14ac:dyDescent="0.3">
       <c r="R20" s="4"/>
     </row>
-    <row r="22" spans="17:18" x14ac:dyDescent="0.35">
+    <row r="22" spans="17:18" x14ac:dyDescent="0.3">
       <c r="Q22" s="6"/>
       <c r="R22" s="4"/>
     </row>
-    <row r="23" spans="17:18" x14ac:dyDescent="0.35">
+    <row r="23" spans="17:18" x14ac:dyDescent="0.3">
       <c r="R23" s="4"/>
     </row>
   </sheetData>
@@ -841,9 +856,9 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -851,7 +866,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -866,15 +881,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B74D610A-0754-471F-9B9F-9DF81FB0FED4}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -894,25 +916,28 @@
         <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -923,24 +948,40 @@
         <v>35</v>
       </c>
       <c r="F2" s="2"/>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="I3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="J3" t="s">
+        <v>40</v>
+      </c>
       <c r="K3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L3" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{4C74CBF8-85D8-4160-8560-682A35AEC5FB}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{670D28E5-98B8-4879-BF8E-35DA6391C1F8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Gold_Fly/src/test/resources/TestData/FlyPegion/FlyPegionTestData.xlsx
+++ b/Gold_Fly/src/test/resources/TestData/FlyPegion/FlyPegionTestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6834FD82-4968-4CF3-9307-41D14644B5A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C04790-850E-44ED-A5C7-3222E53FF081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20391" windowHeight="10837" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="1" r:id="rId1"/>
@@ -39,9 +39,6 @@
     <t>Account Links</t>
   </si>
   <si>
-    <t>Bus Booking List,Air Booking List,Set Markups,Commission Details,Transactions,Profile,Change Password,Support</t>
-  </si>
-  <si>
     <t>Add Balance,Buses</t>
   </si>
   <si>
@@ -217,6 +214,9 @@
   </si>
   <si>
     <t>Pegion</t>
+  </si>
+  <si>
+    <t>Bus Booking List,Air Booking List,Set Markups,Commission Details,Transactions,Profile,Change Password,Callback Support</t>
   </si>
 </sst>
 </file>
@@ -578,73 +578,73 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W23"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="56.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="56.81640625" defaultRowHeight="14.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
-    <col min="2" max="3" width="23.21875" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" customWidth="1"/>
-    <col min="7" max="10" width="9.6640625" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="9.6640625" customWidth="1"/>
-    <col min="15" max="15" width="100.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.77734375" customWidth="1"/>
-    <col min="17" max="17" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.21875" customWidth="1"/>
-    <col min="20" max="20" width="10.6640625" customWidth="1"/>
-    <col min="21" max="21" width="10.44140625" customWidth="1"/>
-    <col min="22" max="22" width="20.77734375" customWidth="1"/>
-    <col min="23" max="23" width="23.5546875" customWidth="1"/>
+    <col min="1" max="1" width="12.6328125" customWidth="1"/>
+    <col min="2" max="3" width="23.1796875" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" customWidth="1"/>
+    <col min="5" max="5" width="15.36328125" customWidth="1"/>
+    <col min="6" max="6" width="9.36328125" customWidth="1"/>
+    <col min="7" max="10" width="9.6328125" customWidth="1"/>
+    <col min="11" max="11" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="9.6328125" customWidth="1"/>
+    <col min="15" max="15" width="100.36328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.81640625" customWidth="1"/>
+    <col min="17" max="17" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.1796875" customWidth="1"/>
+    <col min="20" max="20" width="10.6328125" customWidth="1"/>
+    <col min="21" max="21" width="10.453125" customWidth="1"/>
+    <col min="22" max="22" width="20.81640625" customWidth="1"/>
+    <col min="23" max="23" width="23.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="N1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>4</v>
@@ -653,52 +653,52 @@
         <v>2</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="V1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O2" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="P2" s="6" t="s">
         <v>5</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>6</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" s="4"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -710,21 +710,21 @@
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
       <c r="Q3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="R3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="R3" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -736,105 +736,105 @@
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="O4" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="S4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="T4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="U4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="U4" s="9" t="s">
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="R5" s="3"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
-      <c r="R5" s="3"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="F6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" t="s">
         <v>44</v>
-      </c>
-      <c r="G6" t="s">
-        <v>45</v>
       </c>
       <c r="I6">
         <v>27</v>
       </c>
       <c r="J6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R6" s="3"/>
       <c r="U6" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" t="s">
         <v>49</v>
       </c>
-      <c r="F7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" t="s">
-        <v>50</v>
-      </c>
       <c r="H7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R7" s="3"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
       <c r="Q12" s="5"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
       <c r="Q14" s="2"/>
     </row>
-    <row r="18" spans="17:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="17:18" x14ac:dyDescent="0.35">
       <c r="R18" s="4"/>
     </row>
-    <row r="20" spans="17:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="17:18" x14ac:dyDescent="0.35">
       <c r="R20" s="4"/>
     </row>
-    <row r="22" spans="17:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="17:18" x14ac:dyDescent="0.35">
       <c r="Q22" s="6"/>
       <c r="R22" s="4"/>
     </row>
-    <row r="23" spans="17:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="17:18" x14ac:dyDescent="0.35">
       <c r="R23" s="4"/>
     </row>
   </sheetData>
@@ -853,25 +853,25 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -883,99 +883,99 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B74D610A-0754-471F-9B9F-9DF81FB0FED4}">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.90625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="J1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="L1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H3" s="9"/>
       <c r="J3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" t="s">
         <v>40</v>
       </c>
-      <c r="K3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L4" t="s">
+        <v>62</v>
+      </c>
+      <c r="M4" t="s">
         <v>63</v>
-      </c>
-      <c r="M4" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/Gold_Fly/src/test/resources/TestData/FlyPegion/FlyPegionTestData.xlsx
+++ b/Gold_Fly/src/test/resources/TestData/FlyPegion/FlyPegionTestData.xlsx
@@ -3,14 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C04790-850E-44ED-A5C7-3222E53FF081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05BD68AF-0139-4834-B2DE-C85C10D55F35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20391" windowHeight="10837" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="1" r:id="rId1"/>
     <sheet name="FooterLinks" sheetId="2" r:id="rId2"/>
     <sheet name="Airlines" sheetId="3" r:id="rId3"/>
+    <sheet name="Transactions" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="68">
   <si>
     <t>DataSet</t>
   </si>
@@ -217,6 +218,15 @@
   </si>
   <si>
     <t>Bus Booking List,Air Booking List,Set Markups,Commission Details,Transactions,Profile,Change Password,Callback Support</t>
+  </si>
+  <si>
+    <t>Transaction</t>
+  </si>
+  <si>
+    <t>Transaction ID</t>
+  </si>
+  <si>
+    <t>FPGNB2BWAE673E66</t>
   </si>
 </sst>
 </file>
@@ -226,7 +236,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,6 +266,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -284,7 +300,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
@@ -295,6 +311,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -578,32 +597,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="56.81640625" defaultRowHeight="14.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="56.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.6328125" customWidth="1"/>
-    <col min="2" max="3" width="23.1796875" customWidth="1"/>
-    <col min="4" max="4" width="14.453125" customWidth="1"/>
-    <col min="5" max="5" width="15.36328125" customWidth="1"/>
-    <col min="6" max="6" width="9.36328125" customWidth="1"/>
-    <col min="7" max="10" width="9.6328125" customWidth="1"/>
-    <col min="11" max="11" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="9.6328125" customWidth="1"/>
-    <col min="15" max="15" width="100.36328125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.81640625" customWidth="1"/>
-    <col min="17" max="17" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.1796875" customWidth="1"/>
-    <col min="20" max="20" width="10.6328125" customWidth="1"/>
-    <col min="21" max="21" width="10.453125" customWidth="1"/>
-    <col min="22" max="22" width="20.81640625" customWidth="1"/>
-    <col min="23" max="23" width="23.54296875" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="3" width="23.21875" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" customWidth="1"/>
+    <col min="7" max="10" width="9.6640625" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="9.6640625" customWidth="1"/>
+    <col min="15" max="15" width="100.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.77734375" customWidth="1"/>
+    <col min="17" max="17" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.21875" customWidth="1"/>
+    <col min="20" max="20" width="10.6640625" customWidth="1"/>
+    <col min="21" max="21" width="10.44140625" customWidth="1"/>
+    <col min="22" max="22" width="20.77734375" customWidth="1"/>
+    <col min="23" max="23" width="23.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -674,7 +693,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -693,7 +712,7 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="4"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -716,7 +735,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -749,7 +768,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -758,7 +777,7 @@
       </c>
       <c r="R5" s="3"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -791,7 +810,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>48</v>
       </c>
@@ -818,23 +837,23 @@
       </c>
       <c r="R7" s="3"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="Q12" s="5"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="Q14" s="2"/>
     </row>
-    <row r="18" spans="17:18" x14ac:dyDescent="0.35">
+    <row r="18" spans="17:18" x14ac:dyDescent="0.3">
       <c r="R18" s="4"/>
     </row>
-    <row r="20" spans="17:18" x14ac:dyDescent="0.35">
+    <row r="20" spans="17:18" x14ac:dyDescent="0.3">
       <c r="R20" s="4"/>
     </row>
-    <row r="22" spans="17:18" x14ac:dyDescent="0.35">
+    <row r="22" spans="17:18" x14ac:dyDescent="0.3">
       <c r="Q22" s="6"/>
       <c r="R22" s="4"/>
     </row>
-    <row r="23" spans="17:18" x14ac:dyDescent="0.35">
+    <row r="23" spans="17:18" x14ac:dyDescent="0.3">
       <c r="R23" s="4"/>
     </row>
   </sheetData>
@@ -856,9 +875,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -866,7 +885,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -884,19 +903,19 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="25.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -937,7 +956,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -949,7 +968,7 @@
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -961,7 +980,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -985,4 +1004,67 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2C73008-F68E-4194-BF56-080D36766BB8}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="18.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{6D5B2F3A-E3E9-421A-8A88-883DF2CF56C6}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>
--- a/Gold_Fly/src/test/resources/TestData/FlyPegion/FlyPegionTestData.xlsx
+++ b/Gold_Fly/src/test/resources/TestData/FlyPegion/FlyPegionTestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05BD68AF-0139-4834-B2DE-C85C10D55F35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{896D03F4-D3AB-440F-BC34-B5850EBE35BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="70">
   <si>
     <t>DataSet</t>
   </si>
@@ -227,6 +227,12 @@
   </si>
   <si>
     <t>FPGNB2BWAE673E66</t>
+  </si>
+  <si>
+    <t>FPGNCR10000025</t>
+  </si>
+  <si>
+    <t>Air Booking list</t>
   </si>
 </sst>
 </file>
@@ -1008,15 +1014,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2C73008-F68E-4194-BF56-080D36766BB8}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="12" customWidth="1"/>
     <col min="5" max="5" width="18.77734375" bestFit="1" customWidth="1"/>
   </cols>
@@ -1058,6 +1064,14 @@
       </c>
       <c r="D3" s="8" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/Gold_Fly/src/test/resources/TestData/FlyPegion/FlyPegionTestData.xlsx
+++ b/Gold_Fly/src/test/resources/TestData/FlyPegion/FlyPegionTestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{896D03F4-D3AB-440F-BC34-B5850EBE35BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F88E208-5A9D-4A78-953D-5093630F99D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20391" windowHeight="10837" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="71">
   <si>
     <t>DataSet</t>
   </si>
@@ -233,6 +233,9 @@
   </si>
   <si>
     <t>Air Booking list</t>
+  </si>
+  <si>
+    <t>bus booking list</t>
   </si>
 </sst>
 </file>
@@ -604,31 +607,31 @@
   <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="56.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="56.81640625" defaultRowHeight="14.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
-    <col min="2" max="3" width="23.21875" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" customWidth="1"/>
-    <col min="7" max="10" width="9.6640625" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="9.6640625" customWidth="1"/>
-    <col min="15" max="15" width="100.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.77734375" customWidth="1"/>
-    <col min="17" max="17" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.21875" customWidth="1"/>
-    <col min="20" max="20" width="10.6640625" customWidth="1"/>
-    <col min="21" max="21" width="10.44140625" customWidth="1"/>
-    <col min="22" max="22" width="20.77734375" customWidth="1"/>
-    <col min="23" max="23" width="23.5546875" customWidth="1"/>
+    <col min="1" max="1" width="12.6328125" customWidth="1"/>
+    <col min="2" max="3" width="23.1796875" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" customWidth="1"/>
+    <col min="5" max="5" width="15.36328125" customWidth="1"/>
+    <col min="6" max="6" width="9.36328125" customWidth="1"/>
+    <col min="7" max="10" width="9.6328125" customWidth="1"/>
+    <col min="11" max="11" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="9.6328125" customWidth="1"/>
+    <col min="15" max="15" width="100.36328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.81640625" customWidth="1"/>
+    <col min="17" max="17" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.1796875" customWidth="1"/>
+    <col min="20" max="20" width="10.6328125" customWidth="1"/>
+    <col min="21" max="21" width="10.453125" customWidth="1"/>
+    <col min="22" max="22" width="20.81640625" customWidth="1"/>
+    <col min="23" max="23" width="23.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -699,7 +702,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -718,7 +721,7 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="4"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -741,7 +744,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -774,7 +777,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -783,7 +786,7 @@
       </c>
       <c r="R5" s="3"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -816,7 +819,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>48</v>
       </c>
@@ -843,23 +846,23 @@
       </c>
       <c r="R7" s="3"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
       <c r="Q12" s="5"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
       <c r="Q14" s="2"/>
     </row>
-    <row r="18" spans="17:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="17:18" x14ac:dyDescent="0.35">
       <c r="R18" s="4"/>
     </row>
-    <row r="20" spans="17:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="17:18" x14ac:dyDescent="0.35">
       <c r="R20" s="4"/>
     </row>
-    <row r="22" spans="17:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="17:18" x14ac:dyDescent="0.35">
       <c r="Q22" s="6"/>
       <c r="R22" s="4"/>
     </row>
-    <row r="23" spans="17:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="17:18" x14ac:dyDescent="0.35">
       <c r="R23" s="4"/>
     </row>
   </sheetData>
@@ -881,9 +884,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -891,7 +894,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -912,16 +915,16 @@
       <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.90625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -962,7 +965,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -974,7 +977,7 @@
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -986,7 +989,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -1014,20 +1017,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2C73008-F68E-4194-BF56-080D36766BB8}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1043,8 +1046,11 @@
       <c r="E1" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>65</v>
       </c>
@@ -1055,7 +1061,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1066,12 +1072,20 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>69</v>
       </c>
       <c r="E4" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
